--- a/data_summary/data_summary_by_year.xlsx
+++ b/data_summary/data_summary_by_year.xlsx
@@ -114,7 +114,7 @@
     <t>Latest Census Pop. (CMP)</t>
   </si>
   <si>
-    <t>Provider_PPSA</t>
+    <t>Provider_MPSA</t>
   </si>
   <si>
     <t>Provider_Municipal</t>
@@ -245,7 +245,7 @@
     <tableColumn id="25" name="Biennial Surplus/Capita (REV)" dataDxfId="1"/>
     <tableColumn id="26" name="Total Non-Warrant Rev./Capita (REV)" dataDxfId="1"/>
     <tableColumn id="27" name="Latest Census Pop. (CMP)" dataDxfId="1"/>
-    <tableColumn id="28" name="Provider_PPSA" dataDxfId="1"/>
+    <tableColumn id="28" name="Provider_MPSA" dataDxfId="1"/>
     <tableColumn id="29" name="Provider_Municipal" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -283,7 +283,7 @@
     <tableColumn id="25" name="Biennial Surplus/Capita (REV)" dataDxfId="1"/>
     <tableColumn id="26" name="Total Non-Warrant Rev./Capita (REV)" dataDxfId="1"/>
     <tableColumn id="27" name="Latest Census Pop. (CMP)" dataDxfId="1"/>
-    <tableColumn id="28" name="Provider_PPSA" dataDxfId="1"/>
+    <tableColumn id="28" name="Provider_MPSA" dataDxfId="1"/>
     <tableColumn id="29" name="Provider_Municipal" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -321,7 +321,7 @@
     <tableColumn id="25" name="Biennial Surplus/Capita (REV)" dataDxfId="1"/>
     <tableColumn id="26" name="Total Non-Warrant Rev./Capita (REV)" dataDxfId="1"/>
     <tableColumn id="27" name="Latest Census Pop. (CMP)" dataDxfId="1"/>
-    <tableColumn id="28" name="Provider_PPSA" dataDxfId="1"/>
+    <tableColumn id="28" name="Provider_MPSA" dataDxfId="1"/>
     <tableColumn id="29" name="Provider_Municipal" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -359,7 +359,7 @@
     <tableColumn id="25" name="Biennial Surplus/Capita (REV)" dataDxfId="1"/>
     <tableColumn id="26" name="Total Non-Warrant Rev./Capita (REV)" dataDxfId="1"/>
     <tableColumn id="27" name="Latest Census Pop. (CMP)" dataDxfId="1"/>
-    <tableColumn id="28" name="Provider_PPSA" dataDxfId="1"/>
+    <tableColumn id="28" name="Provider_MPSA" dataDxfId="1"/>
     <tableColumn id="29" name="Provider_Municipal" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -397,7 +397,7 @@
     <tableColumn id="25" name="Biennial Surplus/Capita (REV)" dataDxfId="1"/>
     <tableColumn id="26" name="Total Non-Warrant Rev./Capita (REV)" dataDxfId="1"/>
     <tableColumn id="27" name="Latest Census Pop. (CMP)" dataDxfId="1"/>
-    <tableColumn id="28" name="Provider_PPSA" dataDxfId="1"/>
+    <tableColumn id="28" name="Provider_MPSA" dataDxfId="1"/>
     <tableColumn id="29" name="Provider_Municipal" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -435,7 +435,7 @@
     <tableColumn id="25" name="Biennial Surplus/Capita (REV)" dataDxfId="1"/>
     <tableColumn id="26" name="Total Non-Warrant Rev./Capita (REV)" dataDxfId="1"/>
     <tableColumn id="27" name="Latest Census Pop. (CMP)" dataDxfId="1"/>
-    <tableColumn id="28" name="Provider_PPSA" dataDxfId="1"/>
+    <tableColumn id="28" name="Provider_MPSA" dataDxfId="1"/>
     <tableColumn id="29" name="Provider_Municipal" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -473,7 +473,7 @@
     <tableColumn id="25" name="Biennial Surplus/Capita (REV)" dataDxfId="1"/>
     <tableColumn id="26" name="Total Non-Warrant Rev./Capita (REV)" dataDxfId="1"/>
     <tableColumn id="27" name="Latest Census Pop. (CMP)" dataDxfId="1"/>
-    <tableColumn id="28" name="Provider_PPSA" dataDxfId="1"/>
+    <tableColumn id="28" name="Provider_MPSA" dataDxfId="1"/>
     <tableColumn id="29" name="Provider_Municipal" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -511,7 +511,7 @@
     <tableColumn id="25" name="Biennial Surplus/Capita (REV)" dataDxfId="1"/>
     <tableColumn id="26" name="Total Non-Warrant Rev./Capita (REV)" dataDxfId="1"/>
     <tableColumn id="27" name="Latest Census Pop. (CMP)" dataDxfId="1"/>
-    <tableColumn id="28" name="Provider_PPSA" dataDxfId="1"/>
+    <tableColumn id="28" name="Provider_MPSA" dataDxfId="1"/>
     <tableColumn id="29" name="Provider_Municipal" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -549,7 +549,7 @@
     <tableColumn id="25" name="Biennial Surplus/Capita (REV)" dataDxfId="1"/>
     <tableColumn id="26" name="Total Non-Warrant Rev./Capita (REV)" dataDxfId="1"/>
     <tableColumn id="27" name="Latest Census Pop. (CMP)" dataDxfId="1"/>
-    <tableColumn id="28" name="Provider_PPSA" dataDxfId="1"/>
+    <tableColumn id="28" name="Provider_MPSA" dataDxfId="1"/>
     <tableColumn id="29" name="Provider_Municipal" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -587,7 +587,7 @@
     <tableColumn id="25" name="Biennial Surplus/Capita (REV)" dataDxfId="1"/>
     <tableColumn id="26" name="Total Non-Warrant Rev./Capita (REV)" dataDxfId="1"/>
     <tableColumn id="27" name="Latest Census Pop. (CMP)" dataDxfId="1"/>
-    <tableColumn id="28" name="Provider_PPSA" dataDxfId="1"/>
+    <tableColumn id="28" name="Provider_MPSA" dataDxfId="1"/>
     <tableColumn id="29" name="Provider_Municipal" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -625,7 +625,7 @@
     <tableColumn id="25" name="Biennial Surplus/Capita (REV)" dataDxfId="1"/>
     <tableColumn id="26" name="Total Non-Warrant Rev./Capita (REV)" dataDxfId="1"/>
     <tableColumn id="27" name="Latest Census Pop. (CMP)" dataDxfId="1"/>
-    <tableColumn id="28" name="Provider_PPSA" dataDxfId="1"/>
+    <tableColumn id="28" name="Provider_MPSA" dataDxfId="1"/>
     <tableColumn id="29" name="Provider_Municipal" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -663,7 +663,7 @@
     <tableColumn id="25" name="Biennial Surplus/Capita (REV)" dataDxfId="1"/>
     <tableColumn id="26" name="Total Non-Warrant Rev./Capita (REV)" dataDxfId="1"/>
     <tableColumn id="27" name="Latest Census Pop. (CMP)" dataDxfId="1"/>
-    <tableColumn id="28" name="Provider_PPSA" dataDxfId="1"/>
+    <tableColumn id="28" name="Provider_MPSA" dataDxfId="1"/>
     <tableColumn id="29" name="Provider_Municipal" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -701,7 +701,7 @@
     <tableColumn id="25" name="Biennial Surplus/Capita (REV)" dataDxfId="1"/>
     <tableColumn id="26" name="Total Non-Warrant Rev./Capita (REV)" dataDxfId="1"/>
     <tableColumn id="27" name="Latest Census Pop. (CMP)" dataDxfId="1"/>
-    <tableColumn id="28" name="Provider_PPSA" dataDxfId="1"/>
+    <tableColumn id="28" name="Provider_MPSA" dataDxfId="1"/>
     <tableColumn id="29" name="Provider_Municipal" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -739,7 +739,7 @@
     <tableColumn id="25" name="Biennial Surplus/Capita (REV)" dataDxfId="1"/>
     <tableColumn id="26" name="Total Non-Warrant Rev./Capita (REV)" dataDxfId="1"/>
     <tableColumn id="27" name="Latest Census Pop. (CMP)" dataDxfId="1"/>
-    <tableColumn id="28" name="Provider_PPSA" dataDxfId="1"/>
+    <tableColumn id="28" name="Provider_MPSA" dataDxfId="1"/>
     <tableColumn id="29" name="Provider_Municipal" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -777,7 +777,7 @@
     <tableColumn id="25" name="Biennial Surplus/Capita (REV)" dataDxfId="1"/>
     <tableColumn id="26" name="Total Non-Warrant Rev./Capita (REV)" dataDxfId="1"/>
     <tableColumn id="27" name="Latest Census Pop. (CMP)" dataDxfId="1"/>
-    <tableColumn id="28" name="Provider_PPSA" dataDxfId="1"/>
+    <tableColumn id="28" name="Provider_MPSA" dataDxfId="1"/>
     <tableColumn id="29" name="Provider_Municipal" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -815,7 +815,7 @@
     <tableColumn id="25" name="Biennial Surplus/Capita (REV)" dataDxfId="1"/>
     <tableColumn id="26" name="Total Non-Warrant Rev./Capita (REV)" dataDxfId="1"/>
     <tableColumn id="27" name="Latest Census Pop. (CMP)" dataDxfId="1"/>
-    <tableColumn id="28" name="Provider_PPSA" dataDxfId="1"/>
+    <tableColumn id="28" name="Provider_MPSA" dataDxfId="1"/>
     <tableColumn id="29" name="Provider_Municipal" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -853,7 +853,7 @@
     <tableColumn id="25" name="Biennial Surplus/Capita (REV)" dataDxfId="1"/>
     <tableColumn id="26" name="Total Non-Warrant Rev./Capita (REV)" dataDxfId="1"/>
     <tableColumn id="27" name="Latest Census Pop. (CMP)" dataDxfId="1"/>
-    <tableColumn id="28" name="Provider_PPSA" dataDxfId="1"/>
+    <tableColumn id="28" name="Provider_MPSA" dataDxfId="1"/>
     <tableColumn id="29" name="Provider_Municipal" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -891,7 +891,7 @@
     <tableColumn id="25" name="Biennial Surplus/Capita (REV)" dataDxfId="1"/>
     <tableColumn id="26" name="Total Non-Warrant Rev./Capita (REV)" dataDxfId="1"/>
     <tableColumn id="27" name="Latest Census Pop. (CMP)" dataDxfId="1"/>
-    <tableColumn id="28" name="Provider_PPSA" dataDxfId="1"/>
+    <tableColumn id="28" name="Provider_MPSA" dataDxfId="1"/>
     <tableColumn id="29" name="Provider_Municipal" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1570,7 +1570,7 @@
         <v>4447.514563106796</v>
       </c>
       <c r="AB4" s="3">
-        <v>0.7281553398058253</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="AC4" s="3">
         <v>0.1553398058252427</v>
@@ -1659,7 +1659,7 @@
         <v>10478.49171984332</v>
       </c>
       <c r="AB5" s="3">
-        <v>0.4470858749217428</v>
+        <v>0.3223982093132047</v>
       </c>
       <c r="AC5" s="3">
         <v>0.3639996108971756</v>
@@ -1926,7 +1926,7 @@
         <v>1379</v>
       </c>
       <c r="AB8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="3">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>4081</v>
       </c>
       <c r="AB9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="3">
         <v>0</v>
@@ -2507,7 +2507,7 @@
         <v>4528.673267326732</v>
       </c>
       <c r="AB4" s="3">
-        <v>0.7326732673267327</v>
+        <v>0.1188118811881188</v>
       </c>
       <c r="AC4" s="3">
         <v>0.1485148514851485</v>
@@ -2596,7 +2596,7 @@
         <v>10757.99855094702</v>
       </c>
       <c r="AB5" s="3">
-        <v>0.4447716067581404</v>
+        <v>0.325180833164296</v>
       </c>
       <c r="AC5" s="3">
         <v>0.3573832288695535</v>
@@ -2863,7 +2863,7 @@
         <v>1314</v>
       </c>
       <c r="AB8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="3">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>3676</v>
       </c>
       <c r="AB9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="3">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>4528.673267326732</v>
       </c>
       <c r="AB4" s="3">
-        <v>0.7326732673267327</v>
+        <v>0.1188118811881188</v>
       </c>
       <c r="AC4" s="3">
         <v>0.1485148514851485</v>
@@ -3533,7 +3533,7 @@
         <v>10757.99855094702</v>
       </c>
       <c r="AB5" s="3">
-        <v>0.4447716067581404</v>
+        <v>0.325180833164296</v>
       </c>
       <c r="AC5" s="3">
         <v>0.3573832288695535</v>
@@ -3800,7 +3800,7 @@
         <v>1314</v>
       </c>
       <c r="AB8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="3">
         <v>0</v>
@@ -3889,7 +3889,7 @@
         <v>3676</v>
       </c>
       <c r="AB9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="3">
         <v>0</v>
@@ -4381,7 +4381,7 @@
         <v>4742.792079207921</v>
       </c>
       <c r="AB4" s="3">
-        <v>0.7326732673267327</v>
+        <v>0.1188118811881188</v>
       </c>
       <c r="AC4" s="3">
         <v>0.1485148514851485</v>
@@ -4470,7 +4470,7 @@
         <v>11508.34640712282</v>
       </c>
       <c r="AB5" s="3">
-        <v>0.4447716067581404</v>
+        <v>0.325180833164296</v>
       </c>
       <c r="AC5" s="3">
         <v>0.3573832288695535</v>
@@ -4737,7 +4737,7 @@
         <v>1286</v>
       </c>
       <c r="AB8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="3">
         <v>0</v>
@@ -4826,7 +4826,7 @@
         <v>3512</v>
       </c>
       <c r="AB9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="3">
         <v>0</v>
@@ -4964,7 +4964,7 @@
     <col min="25" max="25" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5318,7 +5318,7 @@
         <v>4781.87</v>
       </c>
       <c r="AB4" s="3">
-        <v>0.73</v>
+        <v>0.12</v>
       </c>
       <c r="AC4" s="3">
         <v>0.15</v>
@@ -5407,7 +5407,7 @@
         <v>11559.59530648007</v>
       </c>
       <c r="AB5" s="3">
-        <v>0.4461960433384738</v>
+        <v>0.3265986323710904</v>
       </c>
       <c r="AC5" s="3">
         <v>0.3588702812826367</v>
@@ -5674,7 +5674,7 @@
         <v>1301</v>
       </c>
       <c r="AB8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="3">
         <v>0</v>
@@ -5763,7 +5763,7 @@
         <v>3512</v>
       </c>
       <c r="AB9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="3">
         <v>0</v>
@@ -5901,7 +5901,7 @@
     <col min="25" max="25" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6255,7 +6255,7 @@
         <v>4783.83</v>
       </c>
       <c r="AB4" s="3">
-        <v>0.73</v>
+        <v>0.12</v>
       </c>
       <c r="AC4" s="3">
         <v>0.15</v>
@@ -6344,7 +6344,7 @@
         <v>11558.87649468117</v>
       </c>
       <c r="AB5" s="3">
-        <v>0.4461960433384738</v>
+        <v>0.3265986323710904</v>
       </c>
       <c r="AC5" s="3">
         <v>0.3588702812826367</v>
@@ -6611,7 +6611,7 @@
         <v>1301</v>
       </c>
       <c r="AB8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="3">
         <v>0</v>
@@ -6700,7 +6700,7 @@
         <v>3512</v>
       </c>
       <c r="AB9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="3">
         <v>0</v>
@@ -6838,7 +6838,7 @@
     <col min="25" max="25" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7192,7 +7192,7 @@
         <v>4782.323232323232</v>
       </c>
       <c r="AB4" s="3">
-        <v>0.7272727272727273</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="AC4" s="3">
         <v>0.1515151515151515</v>
@@ -7281,7 +7281,7 @@
         <v>11617.69080275131</v>
       </c>
       <c r="AB5" s="3">
-        <v>0.4476282581717944</v>
+        <v>0.3280345698783139</v>
       </c>
       <c r="AC5" s="3">
         <v>0.3603749850782236</v>
@@ -7548,7 +7548,7 @@
         <v>1286</v>
       </c>
       <c r="AB8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="3">
         <v>0</v>
@@ -7637,7 +7637,7 @@
         <v>3512</v>
       </c>
       <c r="AB9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="3">
         <v>0</v>
@@ -7775,7 +7775,7 @@
     <col min="25" max="25" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8129,7 +8129,7 @@
         <v>4824.151515151515</v>
       </c>
       <c r="AB4" s="3">
-        <v>0.7272727272727273</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="AC4" s="3">
         <v>0.1515151515151515</v>
@@ -8218,7 +8218,7 @@
         <v>11778.20489801676</v>
       </c>
       <c r="AB5" s="3">
-        <v>0.4476282581717944</v>
+        <v>0.3280345698783139</v>
       </c>
       <c r="AC5" s="3">
         <v>0.3603749850782236</v>
@@ -8485,7 +8485,7 @@
         <v>1285</v>
       </c>
       <c r="AB8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="3">
         <v>0</v>
@@ -8574,7 +8574,7 @@
         <v>3570</v>
       </c>
       <c r="AB9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="3">
         <v>0</v>
@@ -8712,7 +8712,7 @@
     <col min="25" max="25" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9066,7 +9066,7 @@
         <v>4824.151515151515</v>
       </c>
       <c r="AB4" s="3">
-        <v>0.7272727272727273</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="AC4" s="3">
         <v>0.1515151515151515</v>
@@ -9155,7 +9155,7 @@
         <v>11778.20489801676</v>
       </c>
       <c r="AB5" s="3">
-        <v>0.4476282581717944</v>
+        <v>0.3280345698783139</v>
       </c>
       <c r="AC5" s="3">
         <v>0.3603749850782236</v>
@@ -9422,7 +9422,7 @@
         <v>1285</v>
       </c>
       <c r="AB8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="3">
         <v>0</v>
@@ -9511,7 +9511,7 @@
         <v>3570</v>
       </c>
       <c r="AB9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="3">
         <v>0</v>
@@ -9649,7 +9649,7 @@
     <col min="25" max="25" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10003,7 +10003,7 @@
         <v>5010.336842105263</v>
       </c>
       <c r="AB4" s="3">
-        <v>0.7157894736842105</v>
+        <v>0.1263157894736842</v>
       </c>
       <c r="AC4" s="3">
         <v>0.1578947368421053</v>
@@ -10092,7 +10092,7 @@
         <v>12011.39351280162</v>
       </c>
       <c r="AB5" s="3">
-        <v>0.4534303740855229</v>
+        <v>0.3339672956073309</v>
       </c>
       <c r="AC5" s="3">
         <v>0.3665767306309684</v>
@@ -10359,7 +10359,7 @@
         <v>1305</v>
       </c>
       <c r="AB8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="3">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>4174</v>
       </c>
       <c r="AB9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="3">
         <v>0</v>
@@ -10940,7 +10940,7 @@
         <v>4447.514563106796</v>
       </c>
       <c r="AB4" s="3">
-        <v>0.7281553398058253</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="AC4" s="3">
         <v>0.1553398058252427</v>
@@ -11029,7 +11029,7 @@
         <v>10478.49171984332</v>
       </c>
       <c r="AB5" s="3">
-        <v>0.4470858749217428</v>
+        <v>0.3223982093132047</v>
       </c>
       <c r="AC5" s="3">
         <v>0.3639996108971756</v>
@@ -11296,7 +11296,7 @@
         <v>1379</v>
       </c>
       <c r="AB8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="3">
         <v>0</v>
@@ -11385,7 +11385,7 @@
         <v>4081</v>
       </c>
       <c r="AB9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="3">
         <v>0</v>
@@ -11877,7 +11877,7 @@
         <v>4447.514563106796</v>
       </c>
       <c r="AB4" s="3">
-        <v>0.7281553398058253</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="AC4" s="3">
         <v>0.1553398058252427</v>
@@ -11966,7 +11966,7 @@
         <v>10478.49171984332</v>
       </c>
       <c r="AB5" s="3">
-        <v>0.4470858749217428</v>
+        <v>0.3223982093132047</v>
       </c>
       <c r="AC5" s="3">
         <v>0.3639996108971756</v>
@@ -12233,7 +12233,7 @@
         <v>1379</v>
       </c>
       <c r="AB8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="3">
         <v>0</v>
@@ -12322,7 +12322,7 @@
         <v>4081</v>
       </c>
       <c r="AB9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="3">
         <v>0</v>
@@ -12814,7 +12814,7 @@
         <v>4397.902912621359</v>
       </c>
       <c r="AB4" s="3">
-        <v>0.7281553398058253</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="AC4" s="3">
         <v>0.1553398058252427</v>
@@ -12903,7 +12903,7 @@
         <v>10418.83796022676</v>
       </c>
       <c r="AB5" s="3">
-        <v>0.4470858749217428</v>
+        <v>0.3223982093132047</v>
       </c>
       <c r="AC5" s="3">
         <v>0.3639996108971756</v>
@@ -13170,7 +13170,7 @@
         <v>1335</v>
       </c>
       <c r="AB8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="3">
         <v>0</v>
@@ -13259,7 +13259,7 @@
         <v>3975</v>
       </c>
       <c r="AB9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="3">
         <v>0</v>
@@ -13751,7 +13751,7 @@
         <v>4397.902912621359</v>
       </c>
       <c r="AB4" s="3">
-        <v>0.7281553398058253</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="AC4" s="3">
         <v>0.1553398058252427</v>
@@ -13840,7 +13840,7 @@
         <v>10418.83796022676</v>
       </c>
       <c r="AB5" s="3">
-        <v>0.4470858749217428</v>
+        <v>0.3223982093132047</v>
       </c>
       <c r="AC5" s="3">
         <v>0.3639996108971756</v>
@@ -14107,7 +14107,7 @@
         <v>1335</v>
       </c>
       <c r="AB8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="3">
         <v>0</v>
@@ -14196,7 +14196,7 @@
         <v>3975</v>
       </c>
       <c r="AB9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="3">
         <v>0</v>
@@ -14688,7 +14688,7 @@
         <v>4397.902912621359</v>
       </c>
       <c r="AB4" s="3">
-        <v>0.7281553398058253</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="AC4" s="3">
         <v>0.1553398058252427</v>
@@ -14777,7 +14777,7 @@
         <v>10418.83796022676</v>
       </c>
       <c r="AB5" s="3">
-        <v>0.4470858749217428</v>
+        <v>0.3223982093132047</v>
       </c>
       <c r="AC5" s="3">
         <v>0.3639996108971756</v>
@@ -15044,7 +15044,7 @@
         <v>1335</v>
       </c>
       <c r="AB8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="3">
         <v>0</v>
@@ -15133,7 +15133,7 @@
         <v>3975</v>
       </c>
       <c r="AB9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="3">
         <v>0</v>
@@ -15625,7 +15625,7 @@
         <v>4476.872549019608</v>
       </c>
       <c r="AB4" s="3">
-        <v>0.7352941176470589</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="AC4" s="3">
         <v>0.1470588235294118</v>
@@ -15714,7 +15714,7 @@
         <v>10716.09086186904</v>
       </c>
       <c r="AB5" s="3">
-        <v>0.4433551330755756</v>
+        <v>0.3237808098282633</v>
       </c>
       <c r="AC5" s="3">
         <v>0.3559135177948392</v>
@@ -15981,7 +15981,7 @@
         <v>1292</v>
       </c>
       <c r="AB8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="3">
         <v>0</v>
@@ -16070,7 +16070,7 @@
         <v>3676</v>
       </c>
       <c r="AB9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="3">
         <v>0</v>
@@ -16562,7 +16562,7 @@
         <v>4476.872549019608</v>
       </c>
       <c r="AB4" s="3">
-        <v>0.7352941176470589</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="AC4" s="3">
         <v>0.1470588235294118</v>
@@ -16651,7 +16651,7 @@
         <v>10716.09086186904</v>
       </c>
       <c r="AB5" s="3">
-        <v>0.4433551330755756</v>
+        <v>0.3237808098282633</v>
       </c>
       <c r="AC5" s="3">
         <v>0.3559135177948392</v>
@@ -16918,7 +16918,7 @@
         <v>1292</v>
       </c>
       <c r="AB8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="3">
         <v>0</v>
@@ -17007,7 +17007,7 @@
         <v>3676</v>
       </c>
       <c r="AB9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="3">
         <v>0</v>
@@ -17499,7 +17499,7 @@
         <v>4528.673267326732</v>
       </c>
       <c r="AB4" s="3">
-        <v>0.7326732673267327</v>
+        <v>0.1188118811881188</v>
       </c>
       <c r="AC4" s="3">
         <v>0.1485148514851485</v>
@@ -17588,7 +17588,7 @@
         <v>10757.99855094702</v>
       </c>
       <c r="AB5" s="3">
-        <v>0.4447716067581404</v>
+        <v>0.325180833164296</v>
       </c>
       <c r="AC5" s="3">
         <v>0.3573832288695535</v>
@@ -17855,7 +17855,7 @@
         <v>1314</v>
       </c>
       <c r="AB8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="3">
         <v>0</v>
@@ -17944,7 +17944,7 @@
         <v>3676</v>
       </c>
       <c r="AB9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="3">
         <v>0</v>
